--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B274CE-4B93-42EC-9509-EE35EB0A1170}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497DE00-84F1-443B-A5D3-6FBB54C34D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,119 +103,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>auipc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x(not sure)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auipc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jalr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x(not sure)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x(not sure)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x(not sure)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x(not sure)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>add</t>
@@ -575,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -589,15 +572,15 @@
     <col min="10" max="11" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:14">
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -609,98 +592,98 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -741,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -779,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -817,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -855,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -893,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -931,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -969,12 +952,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -986,109 +969,109 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1097,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1111,11 +1094,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1124,48 +1107,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -1179,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1200,22 +1183,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1224,94 +1195,129 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="O20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921BF3E2-BFF8-4BD5-9BA1-D2E70B16AE37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0423FE8E-E61C-4842-A8BE-2D8C453A1C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemRead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +253,9 @@
   </si>
   <si>
     <t>I[12]</t>
+  </si>
+  <si>
+    <t>MemReadWrite</t>
   </si>
 </sst>
 </file>
@@ -306,12 +301,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,137 +591,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="11" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -744,8 +742,8 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>55</v>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -766,8 +764,8 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -788,8 +786,8 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -810,8 +808,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" t="s">
-        <v>58</v>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -832,8 +830,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>59</v>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -854,8 +852,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" t="s">
-        <v>60</v>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -876,11 +874,11 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -899,8 +897,8 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -919,8 +917,8 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" t="s">
-        <v>64</v>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -939,594 +937,582 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="O29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="O30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>49</v>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1534,45 +1520,31 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
+    <row r="34" spans="7:11">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="7:11">
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="7:11">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="7:11">
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="39" spans="7:11">
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+    <row r="38" spans="7:11">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0423FE8E-E61C-4842-A8BE-2D8C453A1C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7822A1A3-8366-4003-8A09-16A0ED445824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>MemReadWrite</t>
+  </si>
+  <si>
+    <t>ImmGenOp0</t>
+  </si>
+  <si>
+    <t>ImmGenOp1</t>
+  </si>
+  <si>
+    <t>ImmGenOp2</t>
+  </si>
+  <si>
+    <t>I-type</t>
+  </si>
+  <si>
+    <t>S-type</t>
+  </si>
+  <si>
+    <t>B-type</t>
+  </si>
+  <si>
+    <t>U-type</t>
+  </si>
+  <si>
+    <t>J-type</t>
   </si>
 </sst>
 </file>
@@ -287,12 +311,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -301,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +348,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -603,9 +651,10 @@
     <col min="2" max="2" width="16.9140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="11" width="12.58203125" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20">
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
@@ -639,8 +688,9 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -677,8 +727,22 @@
       <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -715,8 +779,24 @@
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1"/>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -740,8 +820,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1"/>
+      <c r="O4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
@@ -762,8 +858,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -784,8 +881,25 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -806,8 +920,27 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="1"/>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -828,8 +961,27 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1"/>
+      <c r="O8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
@@ -850,8 +1002,27 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="1"/>
+      <c r="O9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
@@ -872,8 +1043,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -895,8 +1067,9 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
@@ -915,8 +1088,9 @@
       <c r="M12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
@@ -935,8 +1109,9 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -976,8 +1151,9 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1014,8 +1190,9 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1052,8 +1229,9 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1268,9 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1307,9 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1166,8 +1346,9 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1204,8 +1385,9 @@
       <c r="M20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1245,8 +1427,9 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1283,8 +1466,9 @@
       <c r="M22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1321,8 +1505,9 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1359,8 +1544,9 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1397,8 +1583,9 @@
       <c r="M25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1435,8 +1622,9 @@
       <c r="M26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1473,61 +1661,124 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="O29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1"/>
     </row>
     <row r="34" spans="7:11">
       <c r="G34" s="1"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7822A1A3-8366-4003-8A09-16A0ED445824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67AA6C-C296-4B21-A79C-52819C450D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>J-type</t>
+  </si>
+  <si>
+    <t>ImmGenOp</t>
+  </si>
+  <si>
+    <t>#000</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>#010</t>
+  </si>
+  <si>
+    <t>#011</t>
+  </si>
+  <si>
+    <t>#100</t>
   </si>
 </sst>
 </file>
@@ -642,7 +660,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -922,22 +940,22 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -962,24 +980,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
@@ -1003,24 +1003,6 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2" t="s">

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67AA6C-C296-4B21-A79C-52819C450D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60B53D-BD02-4275-8D86-A7766052D161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,15 +256,6 @@
   </si>
   <si>
     <t>MemReadWrite</t>
-  </si>
-  <si>
-    <t>ImmGenOp0</t>
-  </si>
-  <si>
-    <t>ImmGenOp1</t>
-  </si>
-  <si>
-    <t>ImmGenOp2</t>
   </si>
   <si>
     <t>I-type</t>
@@ -657,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -902,19 +893,19 @@
       <c r="N6" s="1"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -940,22 +931,22 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1647,7 +1638,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
@@ -1658,126 +1649,48 @@
       <c r="E28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="34" spans="7:11">
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+    <row r="32" spans="1:14">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="7:11">
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="7:11">
+    <row r="36" spans="10:11">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="38" spans="7:11">
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60B53D-BD02-4275-8D86-A7766052D161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1EF235-96E0-4B31-87DA-221CAEB1B7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,116 +179,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>ALUOp0</t>
+  </si>
+  <si>
+    <t>ALUOp1</t>
+  </si>
+  <si>
+    <t>funct7</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>I[31]</t>
+  </si>
+  <si>
+    <t>I[30]</t>
+  </si>
+  <si>
+    <t>I[29]</t>
+  </si>
+  <si>
+    <t>I[28]</t>
+  </si>
+  <si>
+    <t>I[27]</t>
+  </si>
+  <si>
+    <t>I[26]</t>
+  </si>
+  <si>
+    <t>I[25]</t>
+  </si>
+  <si>
+    <t>funct3</t>
+  </si>
+  <si>
+    <t>I[14]</t>
+  </si>
+  <si>
+    <t>I[13]</t>
+  </si>
+  <si>
+    <t>I[12]</t>
+  </si>
+  <si>
+    <t>MemReadWrite</t>
+  </si>
+  <si>
+    <t>I-type</t>
+  </si>
+  <si>
+    <t>S-type</t>
+  </si>
+  <si>
+    <t>B-type</t>
+  </si>
+  <si>
+    <t>U-type</t>
+  </si>
+  <si>
+    <t>J-type</t>
+  </si>
+  <si>
+    <t>ImmGenOp</t>
+  </si>
+  <si>
+    <t>#000</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>#010</t>
+  </si>
+  <si>
+    <t>#011</t>
+  </si>
+  <si>
+    <t>#100</t>
+  </si>
+  <si>
     <t>do nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>ALUOp0</t>
-  </si>
-  <si>
-    <t>ALUOp1</t>
-  </si>
-  <si>
-    <t>funct7</t>
-  </si>
-  <si>
-    <t>opcode</t>
-  </si>
-  <si>
-    <t>I[31]</t>
-  </si>
-  <si>
-    <t>I[30]</t>
-  </si>
-  <si>
-    <t>I[29]</t>
-  </si>
-  <si>
-    <t>I[28]</t>
-  </si>
-  <si>
-    <t>I[27]</t>
-  </si>
-  <si>
-    <t>I[26]</t>
-  </si>
-  <si>
-    <t>I[25]</t>
-  </si>
-  <si>
-    <t>funct3</t>
-  </si>
-  <si>
-    <t>I[14]</t>
-  </si>
-  <si>
-    <t>I[13]</t>
-  </si>
-  <si>
-    <t>I[12]</t>
-  </si>
-  <si>
-    <t>MemReadWrite</t>
-  </si>
-  <si>
-    <t>I-type</t>
-  </si>
-  <si>
-    <t>S-type</t>
-  </si>
-  <si>
-    <t>B-type</t>
-  </si>
-  <si>
-    <t>U-type</t>
-  </si>
-  <si>
-    <t>J-type</t>
-  </si>
-  <si>
-    <t>ImmGenOp</t>
-  </si>
-  <si>
-    <t>#000</t>
-  </si>
-  <si>
-    <t>#001</t>
-  </si>
-  <si>
-    <t>#010</t>
-  </si>
-  <si>
-    <t>#011</t>
-  </si>
-  <si>
-    <t>#100</t>
   </si>
 </sst>
 </file>
@@ -650,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -665,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -707,10 +706,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -739,16 +738,16 @@
       <c r="N2" s="1"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -756,13 +755,13 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -780,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>36</v>
@@ -790,7 +789,7 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -807,10 +806,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -831,7 +830,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -848,7 +847,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -871,7 +870,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -893,24 +892,24 @@
       <c r="N6" s="1"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -931,27 +930,27 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -974,7 +973,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -997,7 +996,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1020,10 +1019,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1044,7 +1043,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1086,7 +1085,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1404,16 +1403,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1422,22 +1421,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -1461,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1482,7 +1481,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1521,7 +1520,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1638,40 +1637,40 @@
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N28" s="1"/>
     </row>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1EF235-96E0-4B31-87DA-221CAEB1B7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7D53B-823E-4738-9FC2-D805837A2A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>outpus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALUSrc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,7 +283,34 @@
     <t>#100</t>
   </si>
   <si>
-    <t>do nothing</t>
+    <t>JALOp</t>
+  </si>
+  <si>
+    <t>AUIPCOp0</t>
+  </si>
+  <si>
+    <t>AUIPCOp1</t>
+  </si>
+  <si>
+    <t>JALROp</t>
+  </si>
+  <si>
+    <t>#00</t>
+  </si>
+  <si>
+    <t>#01</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>outputs</t>
   </si>
 </sst>
 </file>
@@ -348,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -659,137 +685,137 @@
     <col min="2" max="2" width="16.9140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="11" width="12.58203125" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" customWidth="1"/>
+    <col min="15" max="15" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -806,10 +832,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -830,7 +856,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -847,7 +873,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -870,7 +896,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -892,24 +918,24 @@
       <c r="N6" s="1"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -930,27 +956,27 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -973,7 +999,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -993,10 +1019,20 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1016,13 +1052,25 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1043,7 +1091,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1064,7 +1112,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1085,7 +1133,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1361,10 +1409,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1388,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1403,16 +1451,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1421,67 +1469,67 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1505,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -1520,7 +1568,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1544,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -1559,7 +1607,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1571,49 +1619,49 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1621,11 +1669,11 @@
       <c r="I27" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
+      <c r="J27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -1637,59 +1685,229 @@
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N28" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="10:11">
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7D53B-823E-4738-9FC2-D805837A2A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899E438-1678-46B5-A4C8-53B158209DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,37 +171,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>ALUOp0</t>
   </si>
   <si>
@@ -311,6 +304,12 @@
   </si>
   <si>
     <t>outputs</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>slti</t>
   </si>
 </sst>
 </file>
@@ -675,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -690,13 +689,13 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -732,10 +731,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -764,16 +763,16 @@
       <c r="N2" s="1"/>
       <c r="O2" s="3"/>
       <c r="P2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -781,13 +780,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -805,17 +804,17 @@
         <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -832,10 +831,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -856,7 +855,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -873,7 +872,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -896,7 +895,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -918,24 +917,24 @@
       <c r="N6" s="1"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -956,27 +955,27 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -999,7 +998,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1021,10 +1020,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1032,7 +1031,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1053,7 +1052,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1067,10 +1066,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1091,7 +1090,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1112,7 +1111,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1133,7 +1132,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1409,7 +1408,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -1451,16 +1450,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1469,22 +1468,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -1493,43 +1492,43 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1562,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1607,7 +1606,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1685,7 +1684,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1724,7 +1723,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1763,46 +1762,46 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899E438-1678-46B5-A4C8-53B158209DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E32960-A13D-4CAE-8390-AD7C6EC9444D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1452,14 +1452,14 @@
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1467,23 +1467,23 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>37</v>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
       <c r="N22" s="1"/>
     </row>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E32960-A13D-4CAE-8390-AD7C6EC9444D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB69A2F-335D-4720-85C7-B88BDF97C8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>slti</t>
+  </si>
+  <si>
+    <t>ALUOp</t>
+  </si>
+  <si>
+    <t>x(not sure)</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -814,19 +820,19 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -854,21 +860,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
@@ -892,6 +883,22 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="B6" s="2" t="s">
@@ -915,21 +922,23 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>64</v>
+      <c r="O6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -954,24 +963,6 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
@@ -995,6 +986,16 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
@@ -1018,12 +1019,14 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>79</v>
+      <c r="O9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1051,18 +1054,6 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
@@ -1528,55 +1519,55 @@
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1585,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -1606,13 +1597,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1624,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1639,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1657,34 +1648,34 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1696,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1707,23 +1698,23 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
-        <v>0</v>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1762,151 +1753,190 @@
     </row>
     <row r="30" spans="1:14">
       <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
       </c>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="37" spans="3:14">
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="J38" s="1"/>
+    <row r="34" spans="2:14">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="2:14">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="41" spans="3:14">
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+    <row r="40" spans="2:14">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/control_unit.xlsx
+++ b/control_unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vg6\Documents\GitHub\Computer-Architecture-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB69A2F-335D-4720-85C7-B88BDF97C8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CED7A9-97A9-4C36-A32C-0BCBA3C186A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>I[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,12 +195,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>ALUOp0</t>
-  </si>
-  <si>
-    <t>ALUOp1</t>
-  </si>
-  <si>
     <t>funct7</t>
   </si>
   <si>
@@ -316,6 +310,21 @@
   </si>
   <si>
     <t>x(not sure)</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>srli</t>
+  </si>
+  <si>
+    <t>fake-I</t>
+  </si>
+  <si>
+    <t>#101</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,22 +690,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.9140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.58203125" customWidth="1"/>
-    <col min="15" max="15" width="14.4140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="12" width="12.58203125" customWidth="1"/>
+    <col min="17" max="17" width="14.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
@@ -713,23 +725,29 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -752,36 +770,48 @@
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -804,43 +834,55 @@
         <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="V3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="W3" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -860,10 +902,12 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -883,26 +927,28 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:23">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -922,28 +968,30 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -963,10 +1011,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -986,20 +1036,22 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1019,22 +1071,24 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1054,76 +1108,102 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
+      <c r="L13" s="1"/>
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1147,23 +1227,29 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1186,23 +1272,29 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1225,23 +1317,29 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1267,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1278,9 +1376,15 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1312,14 +1416,20 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1356,9 +1466,15 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1395,11 +1511,17 @@
       <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
@@ -1423,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1437,11 +1559,17 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1476,23 +1604,29 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1501,260 +1635,302 @@
         <v>37</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="O24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="B29" s="2" t="s">
+      <c r="L29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="B30" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
@@ -1774,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -1783,160 +1959,97 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="36" spans="7:12">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="7:12">
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="J40" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="40" spans="7:12">
       <c r="K40" s="1"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="L40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
